--- a/backend/public/DTS_CNSS_RECAP.xlsx
+++ b/backend/public/DTS_CNSS_RECAP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EEC397-8015-4324-A9D8-4D545C66BB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9811A1-C6D0-48E9-9CF3-10951F216798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>Nom, cachet et visa de l'employeur</t>
   </si>
   <si>
-    <t>Qualité du signataire DAF</t>
-  </si>
-  <si>
     <t>Signature……………………………………………………….</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>[s.cnss]</t>
+  </si>
+  <si>
+    <t>Qualité du signataire [dts.qualite]</t>
   </si>
 </sst>
 </file>
@@ -897,6 +897,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -906,50 +918,142 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,133 +1106,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1860,64 +1860,64 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="127"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="127"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="128"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="130"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="114"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="124"/>
+      <c r="F7" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="6"/>
@@ -1932,111 +1932,111 @@
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="113"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A10" s="114"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="117" t="s">
+      <c r="D10" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="67"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="G10" s="118"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="120"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="105"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="14" t="s">
+      <c r="G14" s="79"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="111"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="21" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -2058,17 +2058,17 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93" t="s">
+      <c r="C18" s="87"/>
+      <c r="D18" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="93"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="33" t="s">
         <v>17</v>
       </c>
@@ -2077,20 +2077,20 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="94" t="s">
+      <c r="A19" s="86"/>
+      <c r="B19" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="35" t="s">
+      <c r="G19" s="36" t="s">
         <v>52</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
@@ -2104,13 +2104,13 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
@@ -2123,109 +2123,109 @@
       <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97" t="s">
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="98"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101" t="s">
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="97"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="84"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65" t="s">
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="67"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="68" t="s">
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="106"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="108"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="70"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="112"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81" t="e">
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="117" t="e">
         <f>D25-D26-D27</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
       <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
@@ -2238,11 +2238,11 @@
       <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="122"/>
       <c r="D32" s="41" t="s">
         <v>28</v>
       </c>
@@ -2251,62 +2251,62 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="100"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="32"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="125"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="56"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="125"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="56"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="125"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="52"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="56"/>
+      <c r="A37" s="123"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="125"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A38" s="57"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
+      <c r="A38" s="126"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="128"/>
       <c r="D38" s="42"/>
       <c r="E38" s="43"/>
       <c r="F38" s="43"/>
@@ -2322,59 +2322,59 @@
       <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="130"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="61"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="51"/>
+      <c r="D42" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="130"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="61"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="51"/>
+      <c r="D44" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="130"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="10"/>
@@ -2413,21 +2413,21 @@
       <c r="G48" s="32"/>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1">
-      <c r="A49" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
+      <c r="A49" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="52"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" s="45"/>
       <c r="C50" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="45"/>
       <c r="E50" s="11"/>
@@ -2445,25 +2445,31 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="A15:B15"/>
@@ -2477,31 +2483,25 @@
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
